--- a/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F71C4D-EA20-4A3F-BB4D-FA18A2D90C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C925BA-24D5-4EFE-AFB2-EE024080D634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35C28F43-5C44-4073-A54B-6F6077CEED51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D8D1AE2-1876-4AEA-B6AD-A6C79648006E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,658 +76,652 @@
     <t>76,77%</t>
   </si>
   <si>
-    <t>73,91%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19177E89-98E9-4DE5-9927-E02F95B83DC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24346A50-13E9-4731-97E2-746407D10D82}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,7 +1573,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>376</v>
@@ -1588,13 +1582,13 @@
         <v>398750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>779</v>
@@ -1603,13 +1597,13 @@
         <v>823636</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1618,13 @@
         <v>126522</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>76</v>
@@ -1639,13 +1633,13 @@
         <v>77662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>200</v>
@@ -1654,13 +1648,13 @@
         <v>204184</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1722,13 @@
         <v>2495953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2683</v>
@@ -1743,13 +1737,13 @@
         <v>2756435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>5130</v>
@@ -1758,13 +1752,13 @@
         <v>5252388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1773,13 @@
         <v>777718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>612</v>
@@ -1794,7 +1788,7 @@
         <v>620727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>80</v>
@@ -1890,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBE2B44-DFCE-4CA3-9EA9-C9DCF75D5104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE130A3-6B84-45DD-9C30-62421FD32107}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2491,7 +2485,7 @@
         <v>2886</v>
       </c>
       <c r="I13" s="7">
-        <v>3111780</v>
+        <v>3111781</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
@@ -2593,7 +2587,7 @@
         <v>3288</v>
       </c>
       <c r="I15" s="7">
-        <v>3546893</v>
+        <v>3546894</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2641,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1220ADF7-ED7F-42E3-A829-FEA90D8E70A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2098FC2F-91A7-4AD7-A8CA-356004E6A35C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2953,10 +2947,10 @@
         <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2965,13 @@
         <v>469616</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>366</v>
@@ -2986,13 +2980,13 @@
         <v>378244</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>798</v>
@@ -3001,13 +2995,13 @@
         <v>847860</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3069,13 @@
         <v>450318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>431</v>
@@ -3090,13 +3084,13 @@
         <v>453596</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>845</v>
@@ -3105,13 +3099,13 @@
         <v>903914</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3120,7 @@
         <v>96568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>204</v>
@@ -3230,13 +3224,13 @@
         <v>2697550</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>2755</v>
@@ -3245,28 +3239,28 @@
         <v>2939329</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>5340</v>
       </c>
       <c r="N13" s="7">
-        <v>5636879</v>
+        <v>5636880</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3275,13 @@
         <v>673268</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>566</v>
@@ -3296,13 +3290,13 @@
         <v>586942</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>1190</v>
@@ -3311,13 +3305,13 @@
         <v>1260209</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3353,7 @@
         <v>6530</v>
       </c>
       <c r="N15" s="7">
-        <v>6897088</v>
+        <v>6897089</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C925BA-24D5-4EFE-AFB2-EE024080D634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{950EBA22-5E5D-4605-BF8E-1A4C491C12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D8D1AE2-1876-4AEA-B6AD-A6C79648006E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8FB6D6A-51C4-4176-BAAB-5FBC8B3D523B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -76,652 +76,670 @@
     <t>76,77%</t>
   </si>
   <si>
-    <t>74,19%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>82,17%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24346A50-13E9-4731-97E2-746407D10D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D120A424-830C-4CCE-827D-6436F5A371F0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,13 +1755,13 @@
         <v>2756435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>5130</v>
@@ -1752,13 +1770,13 @@
         <v>5252388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1791,13 @@
         <v>777718</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>612</v>
@@ -1788,13 +1806,13 @@
         <v>620727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1376</v>
@@ -1803,13 +1821,13 @@
         <v>1398445</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE130A3-6B84-45DD-9C30-62421FD32107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE1B70-9B67-4157-8167-12CAED2C2D52}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1901,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2008,13 +2026,13 @@
         <v>846869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>1132</v>
@@ -2023,13 +2041,13 @@
         <v>1212841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1914</v>
@@ -2038,13 +2056,13 @@
         <v>2059710</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2077,13 @@
         <v>124711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -2074,13 +2092,13 @@
         <v>123858</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>237</v>
@@ -2089,13 +2107,13 @@
         <v>248569</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2181,13 @@
         <v>1602666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1381</v>
@@ -2178,13 +2196,13 @@
         <v>1483509</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>2891</v>
@@ -2193,13 +2211,13 @@
         <v>3086176</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2232,13 @@
         <v>360332</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>249</v>
@@ -2229,13 +2247,13 @@
         <v>268054</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>594</v>
@@ -2244,13 +2262,13 @@
         <v>628386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2336,13 @@
         <v>398642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>373</v>
@@ -2333,13 +2351,13 @@
         <v>415430</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>734</v>
@@ -2348,13 +2366,13 @@
         <v>814072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2387,13 @@
         <v>81499</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -2384,13 +2402,13 @@
         <v>43201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>115</v>
@@ -2399,13 +2417,13 @@
         <v>124700</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,28 +2491,28 @@
         <v>2848178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2886</v>
       </c>
       <c r="I13" s="7">
-        <v>3111781</v>
+        <v>3111780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>5539</v>
@@ -2503,13 +2521,13 @@
         <v>5959958</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2542,13 @@
         <v>566542</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -2539,13 +2557,13 @@
         <v>435113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>946</v>
@@ -2554,13 +2572,13 @@
         <v>1001655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,7 +2605,7 @@
         <v>3288</v>
       </c>
       <c r="I15" s="7">
-        <v>3546894</v>
+        <v>3546893</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2616,7 +2634,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2098FC2F-91A7-4AD7-A8CA-356004E6A35C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFEB962-9928-4C48-B87F-9CD45D47CFCF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,13 +2777,13 @@
         <v>643274</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>786</v>
@@ -2774,13 +2792,13 @@
         <v>880427</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1439</v>
@@ -2789,13 +2807,13 @@
         <v>1523701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2828,13 @@
         <v>107083</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>105</v>
@@ -2825,13 +2843,13 @@
         <v>113154</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2840,13 +2858,13 @@
         <v>220237</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2932,13 @@
         <v>1603959</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>1538</v>
@@ -2929,13 +2947,13 @@
         <v>1605305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>3056</v>
@@ -2944,13 +2962,13 @@
         <v>3209264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2983,13 @@
         <v>469616</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>366</v>
@@ -2980,13 +2998,13 @@
         <v>378244</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>798</v>
@@ -2995,13 +3013,13 @@
         <v>847860</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3087,13 @@
         <v>450318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>431</v>
@@ -3084,13 +3102,13 @@
         <v>453596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>845</v>
@@ -3099,13 +3117,13 @@
         <v>903914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3138,13 @@
         <v>96568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -3135,13 +3153,13 @@
         <v>95544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -3150,13 +3168,13 @@
         <v>192112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3242,13 @@
         <v>2697550</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>2755</v>
@@ -3239,13 +3257,13 @@
         <v>2939329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>5340</v>
@@ -3254,13 +3272,13 @@
         <v>5636880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3293,13 @@
         <v>673268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>566</v>
@@ -3290,13 +3308,13 @@
         <v>586942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1190</v>
@@ -3305,13 +3323,13 @@
         <v>1260209</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3385,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{950EBA22-5E5D-4605-BF8E-1A4C491C12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A777F78-053E-4ABA-821B-3C185024DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8FB6D6A-51C4-4176-BAAB-5FBC8B3D523B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0248D38E-BE0E-4603-BB16-71D79100250F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D120A424-830C-4CCE-827D-6436F5A371F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51EFB5D-F446-40EB-9895-E0A476703D63}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE1B70-9B67-4157-8167-12CAED2C2D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262D4FE4-862F-4541-9378-81149FC528DA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2178,7 +2178,7 @@
         <v>1510</v>
       </c>
       <c r="D7" s="7">
-        <v>1602666</v>
+        <v>1602667</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2280,7 +2280,7 @@
         <v>1855</v>
       </c>
       <c r="D9" s="7">
-        <v>1962998</v>
+        <v>1962999</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFEB962-9928-4C48-B87F-9CD45D47CFCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC0B96F-474D-443B-BBF6-1AE59A25168D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3114,7 +3114,7 @@
         <v>845</v>
       </c>
       <c r="N10" s="7">
-        <v>903914</v>
+        <v>903915</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>204</v>
@@ -3216,7 +3216,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
